--- a/CuratedDataSets/MarijuanaLegalizationInUSStates.xlsx
+++ b/CuratedDataSets/MarijuanaLegalizationInUSStates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njacob\OneDrive - East Central University\Documents\GitHub\Data_Sets_For_Stats\CuratedDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E630A-E583-40BC-A5B5-A2C75F1232EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318F9AFE-184A-4523-8030-9BD6E0F74CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" xr2:uid="{3393C094-E327-4A4F-9B23-57777EA2780D}"/>
   </bookViews>
@@ -223,7 +223,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,15 +259,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,7 +586,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +594,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -600,7 +613,7 @@
       <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -620,7 +633,7 @@
       <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>5024279</v>
       </c>
       <c r="G2" s="2"/>
@@ -647,7 +660,7 @@
       <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>733391</v>
       </c>
       <c r="G3" s="2"/>
@@ -674,7 +687,7 @@
       <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>7151502</v>
       </c>
       <c r="G4" s="2"/>
@@ -701,7 +714,7 @@
       <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>3011524</v>
       </c>
       <c r="G5" s="2"/>
@@ -728,7 +741,7 @@
       <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>39538223</v>
       </c>
       <c r="G6" s="2"/>
@@ -755,7 +768,7 @@
       <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>5773714</v>
       </c>
       <c r="G7" s="2"/>
@@ -782,7 +795,7 @@
       <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>3605944</v>
       </c>
       <c r="G8" s="2"/>
@@ -809,7 +822,7 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>989948</v>
       </c>
       <c r="G9" s="2"/>
@@ -836,7 +849,7 @@
       <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>689545</v>
       </c>
       <c r="G10" s="2"/>
@@ -861,7 +874,7 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>21538187</v>
       </c>
       <c r="G11" s="2"/>
@@ -888,7 +901,7 @@
       <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>10711908</v>
       </c>
       <c r="G12" s="2"/>
@@ -915,7 +928,7 @@
       <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>1455271</v>
       </c>
       <c r="G13" s="2"/>
@@ -942,7 +955,7 @@
       <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>1839106</v>
       </c>
       <c r="G14" s="2"/>
@@ -969,7 +982,7 @@
       <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>12812508</v>
       </c>
       <c r="J15" s="2"/>
@@ -994,7 +1007,7 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>6785528</v>
       </c>
       <c r="G16" s="2"/>
@@ -1021,7 +1034,7 @@
       <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>3190369</v>
       </c>
       <c r="G17" s="2"/>
@@ -1048,7 +1061,7 @@
       <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>2937880</v>
       </c>
       <c r="G18" s="2"/>
@@ -1075,7 +1088,7 @@
       <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>4505836</v>
       </c>
       <c r="G19" s="2"/>
@@ -1102,7 +1115,7 @@
       <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>4657757</v>
       </c>
       <c r="G20" s="2"/>
@@ -1129,7 +1142,7 @@
       <c r="E21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>1362359</v>
       </c>
       <c r="G21" s="2"/>
@@ -1156,7 +1169,7 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>6177224</v>
       </c>
       <c r="G22" s="2"/>
@@ -1183,7 +1196,7 @@
       <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>7029917</v>
       </c>
       <c r="G23" s="2"/>
@@ -1210,7 +1223,7 @@
       <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>10077331</v>
       </c>
       <c r="G24" s="2"/>
@@ -1237,7 +1250,7 @@
       <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>5706494</v>
       </c>
       <c r="G25" s="2"/>
@@ -1264,7 +1277,7 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>2961279</v>
       </c>
       <c r="J26" s="2"/>
@@ -1289,7 +1302,7 @@
       <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>6154913</v>
       </c>
       <c r="G27" s="2"/>
@@ -1316,7 +1329,7 @@
       <c r="E28" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>1084225</v>
       </c>
       <c r="G28" s="2"/>
@@ -1343,7 +1356,7 @@
       <c r="E29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>1961504</v>
       </c>
       <c r="G29" s="2"/>
@@ -1370,7 +1383,7 @@
       <c r="E30" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>3104614</v>
       </c>
       <c r="G30" s="2"/>
@@ -1397,7 +1410,7 @@
       <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>1377529</v>
       </c>
       <c r="G31" s="2"/>
@@ -1424,7 +1437,7 @@
       <c r="E32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>9288994</v>
       </c>
       <c r="G32" s="2"/>
@@ -1451,7 +1464,7 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>2117522</v>
       </c>
       <c r="G33" s="2"/>
@@ -1478,7 +1491,7 @@
       <c r="E34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>20201249</v>
       </c>
       <c r="G34" s="2"/>
@@ -1505,7 +1518,7 @@
       <c r="E35" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>10439388</v>
       </c>
       <c r="G35" s="2"/>
@@ -1532,7 +1545,7 @@
       <c r="E36" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>779094</v>
       </c>
       <c r="G36" s="2"/>
@@ -1559,7 +1572,7 @@
       <c r="E37" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>11799448</v>
       </c>
       <c r="G37" s="2"/>
@@ -1586,7 +1599,7 @@
       <c r="E38" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>3959353</v>
       </c>
       <c r="G38" s="2"/>
@@ -1613,7 +1626,7 @@
       <c r="E39" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>4237256</v>
       </c>
       <c r="G39" s="2"/>
@@ -1640,7 +1653,7 @@
       <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>13002700</v>
       </c>
       <c r="G40" s="2"/>
@@ -1667,7 +1680,7 @@
       <c r="E41" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>1097379</v>
       </c>
       <c r="G41" s="2"/>
@@ -1694,7 +1707,7 @@
       <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>5118425</v>
       </c>
       <c r="G42" s="2"/>
@@ -1721,7 +1734,7 @@
       <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>886667</v>
       </c>
       <c r="G43" s="2"/>
@@ -1748,7 +1761,7 @@
       <c r="E44" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>6910840</v>
       </c>
       <c r="G44" s="2"/>
@@ -1775,7 +1788,7 @@
       <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>29145505</v>
       </c>
       <c r="G45" s="2"/>
@@ -1802,7 +1815,7 @@
       <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>3271616</v>
       </c>
       <c r="G46" s="2"/>
@@ -1829,7 +1842,7 @@
       <c r="E47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>643077</v>
       </c>
       <c r="G47" s="2"/>
@@ -1856,7 +1869,7 @@
       <c r="E48" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>8631393</v>
       </c>
       <c r="G48" s="2"/>
@@ -1883,7 +1896,7 @@
       <c r="E49" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>7705281</v>
       </c>
       <c r="G49" s="2"/>
@@ -1910,7 +1923,7 @@
       <c r="E50" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>1793716</v>
       </c>
       <c r="J50" s="2"/>
@@ -1935,7 +1948,7 @@
       <c r="E51" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>5893718</v>
       </c>
       <c r="G51" s="2"/>
@@ -1962,7 +1975,7 @@
       <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>576851</v>
       </c>
       <c r="G52" s="2"/>
